--- a/general/doc.xlsx
+++ b/general/doc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sci N Tech Unit\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\lagos_project\general\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3F7A7D-D01A-4F37-98C5-2F2AB9CA7A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="714">
   <si>
     <t>NAME OF SCHOOL</t>
   </si>
@@ -1191,9 +1192,6 @@
   </si>
   <si>
     <t>A.U.D SENIOR HIGH SCHOOL</t>
-  </si>
-  <si>
-    <t>MAINLAND</t>
   </si>
   <si>
     <t>ADEBOLA BAPTIST SENIOR HIGH SCHOOL</t>
@@ -2171,7 +2169,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2417,6 +2415,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2452,6 +2467,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2627,11 +2659,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D688"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A610" workbookViewId="0">
-      <selection activeCell="A610" sqref="A610"/>
+    <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
+      <selection activeCell="D369" sqref="D369:D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7819,12 +7851,12 @@
         <v>361</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B371" s="7" t="s">
         <v>5</v>
@@ -7833,12 +7865,12 @@
         <v>361</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="372" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B372" s="7" t="s">
         <v>5</v>
@@ -7847,12 +7879,12 @@
         <v>361</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="373" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B373" s="7" t="s">
         <v>5</v>
@@ -7861,12 +7893,12 @@
         <v>361</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="374" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B374" s="7" t="s">
         <v>5</v>
@@ -7875,12 +7907,12 @@
         <v>361</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="375" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B375" s="7" t="s">
         <v>5</v>
@@ -7889,12 +7921,12 @@
         <v>361</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="376" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B376" s="7" t="s">
         <v>5</v>
@@ -7903,12 +7935,12 @@
         <v>361</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="377" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B377" s="7" t="s">
         <v>5</v>
@@ -7917,12 +7949,12 @@
         <v>361</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="378" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B378" s="7" t="s">
         <v>5</v>
@@ -7931,12 +7963,12 @@
         <v>361</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="379" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B379" s="7" t="s">
         <v>5</v>
@@ -7945,12 +7977,12 @@
         <v>361</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="380" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B380" s="7" t="s">
         <v>5</v>
@@ -7959,12 +7991,12 @@
         <v>361</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="381" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B381" s="7" t="s">
         <v>5</v>
@@ -7973,12 +8005,12 @@
         <v>361</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="382" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B382" s="7" t="s">
         <v>5</v>
@@ -7987,12 +8019,12 @@
         <v>361</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="383" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B383" s="7" t="s">
         <v>5</v>
@@ -8001,12 +8033,12 @@
         <v>361</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B384" s="7" t="s">
         <v>5</v>
@@ -8015,12 +8047,12 @@
         <v>361</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="385" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B385" s="7" t="s">
         <v>5</v>
@@ -8029,12 +8061,12 @@
         <v>361</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="386" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B386" s="7" t="s">
         <v>5</v>
@@ -8043,12 +8075,12 @@
         <v>361</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="387" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B387" s="7" t="s">
         <v>5</v>
@@ -8057,12 +8089,12 @@
         <v>361</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="388" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B388" s="7" t="s">
         <v>5</v>
@@ -8071,12 +8103,12 @@
         <v>361</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B389" s="7" t="s">
         <v>5</v>
@@ -8085,12 +8117,12 @@
         <v>361</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="390" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B390" s="7" t="s">
         <v>5</v>
@@ -8099,12 +8131,12 @@
         <v>361</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="391" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B391" s="7" t="s">
         <v>5</v>
@@ -8113,12 +8145,12 @@
         <v>361</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="392" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B392" s="7" t="s">
         <v>5</v>
@@ -8127,12 +8159,12 @@
         <v>361</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="393" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B393" s="7" t="s">
         <v>5</v>
@@ -8141,12 +8173,12 @@
         <v>361</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B394" s="7" t="s">
         <v>5</v>
@@ -8155,12 +8187,12 @@
         <v>361</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B395" s="7" t="s">
         <v>5</v>
@@ -8169,12 +8201,12 @@
         <v>361</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="396" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B396" s="7" t="s">
         <v>5</v>
@@ -8183,12 +8215,12 @@
         <v>361</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B397" s="7" t="s">
         <v>5</v>
@@ -8197,12 +8229,12 @@
         <v>361</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="398" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B398" s="7" t="s">
         <v>5</v>
@@ -8211,12 +8243,12 @@
         <v>361</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="399" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B399" s="7" t="s">
         <v>5</v>
@@ -8225,12 +8257,12 @@
         <v>361</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="400" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B400" s="7" t="s">
         <v>5</v>
@@ -8239,12 +8271,12 @@
         <v>361</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B401" s="7" t="s">
         <v>5</v>
@@ -8253,12 +8285,12 @@
         <v>361</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="402" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B402" s="7" t="s">
         <v>5</v>
@@ -8267,12 +8299,12 @@
         <v>361</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="403" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B403" s="7" t="s">
         <v>5</v>
@@ -8281,12 +8313,12 @@
         <v>361</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="404" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B404" s="7" t="s">
         <v>5</v>
@@ -8295,12 +8327,12 @@
         <v>361</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="405" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B405" s="7" t="s">
         <v>5</v>
@@ -8309,12 +8341,12 @@
         <v>361</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="406" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B406" s="7" t="s">
         <v>5</v>
@@ -8323,12 +8355,12 @@
         <v>361</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="407" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B407" s="7" t="s">
         <v>5</v>
@@ -8337,12 +8369,12 @@
         <v>361</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="408" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B408" s="7" t="s">
         <v>5</v>
@@ -8351,12 +8383,12 @@
         <v>361</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="409" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B409" s="7" t="s">
         <v>9</v>
@@ -8365,12 +8397,12 @@
         <v>361</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="410" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B410" s="7" t="s">
         <v>9</v>
@@ -8379,12 +8411,12 @@
         <v>361</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="411" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B411" s="7" t="s">
         <v>9</v>
@@ -8393,12 +8425,12 @@
         <v>361</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="412" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B412" s="7" t="s">
         <v>9</v>
@@ -8407,12 +8439,12 @@
         <v>361</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="413" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B413" s="7" t="s">
         <v>9</v>
@@ -8421,12 +8453,12 @@
         <v>361</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="414" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B414" s="7" t="s">
         <v>9</v>
@@ -8435,12 +8467,12 @@
         <v>361</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="415" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B415" s="7" t="s">
         <v>9</v>
@@ -8449,12 +8481,12 @@
         <v>361</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="416" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B416" s="7" t="s">
         <v>9</v>
@@ -8463,12 +8495,12 @@
         <v>361</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="417" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B417" s="7" t="s">
         <v>9</v>
@@ -8477,12 +8509,12 @@
         <v>361</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B418" s="7" t="s">
         <v>9</v>
@@ -8491,12 +8523,12 @@
         <v>361</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="419" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B419" s="7" t="s">
         <v>9</v>
@@ -8505,12 +8537,12 @@
         <v>361</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="420" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B420" s="7" t="s">
         <v>9</v>
@@ -8519,12 +8551,12 @@
         <v>361</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="421" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B421" s="7" t="s">
         <v>9</v>
@@ -8533,12 +8565,12 @@
         <v>361</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="422" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B422" s="7" t="s">
         <v>9</v>
@@ -8547,12 +8579,12 @@
         <v>361</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="423" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B423" s="7" t="s">
         <v>9</v>
@@ -8561,12 +8593,12 @@
         <v>361</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="424" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B424" s="7" t="s">
         <v>9</v>
@@ -8575,12 +8607,12 @@
         <v>361</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="425" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B425" s="7" t="s">
         <v>9</v>
@@ -8589,12 +8621,12 @@
         <v>361</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="426" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B426" s="7" t="s">
         <v>9</v>
@@ -8603,12 +8635,12 @@
         <v>361</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="427" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B427" s="7" t="s">
         <v>9</v>
@@ -8617,12 +8649,12 @@
         <v>361</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="428" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B428" s="7" t="s">
         <v>9</v>
@@ -8631,12 +8663,12 @@
         <v>361</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="429" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B429" s="7" t="s">
         <v>9</v>
@@ -8645,12 +8677,12 @@
         <v>361</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="430" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B430" s="7" t="s">
         <v>9</v>
@@ -8659,12 +8691,12 @@
         <v>361</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="431" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B431" s="7" t="s">
         <v>9</v>
@@ -8673,12 +8705,12 @@
         <v>361</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="432" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B432" s="7" t="s">
         <v>9</v>
@@ -8687,12 +8719,12 @@
         <v>361</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="433" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B433" s="7" t="s">
         <v>9</v>
@@ -8701,12 +8733,12 @@
         <v>361</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="434" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B434" s="7" t="s">
         <v>9</v>
@@ -8715,12 +8747,12 @@
         <v>361</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="435" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B435" s="7" t="s">
         <v>9</v>
@@ -8729,12 +8761,12 @@
         <v>361</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="436" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B436" s="7" t="s">
         <v>9</v>
@@ -8743,12 +8775,12 @@
         <v>361</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="437" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B437" s="7" t="s">
         <v>9</v>
@@ -8757,3507 +8789,3507 @@
         <v>361</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="438" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B438" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C438" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D438" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D438" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="439" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B439" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C439" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D439" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D439" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="440" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B440" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C440" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D440" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D440" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="441" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B441" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C441" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D441" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D441" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="442" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B442" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C442" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D442" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D442" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="443" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B443" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C443" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D443" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D443" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="444" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B444" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C444" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D444" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D444" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="445" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B445" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C445" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D445" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D445" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="446" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B446" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C446" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D446" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D446" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="447" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B447" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C447" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D447" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D447" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="448" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B448" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C448" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D448" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D448" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="449" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B449" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C449" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D449" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D449" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="450" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B450" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C450" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D450" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D450" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="451" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B451" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C451" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D451" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D451" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="452" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B452" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C452" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D452" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D452" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="453" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B453" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C453" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D453" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D453" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="454" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B454" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C454" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D454" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D454" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="455" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B455" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C455" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D455" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D455" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="456" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B456" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C456" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D456" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D456" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="457" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B457" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C457" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D457" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D457" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="458" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B458" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C458" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D458" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D458" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="459" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B459" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C459" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D459" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D459" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="460" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B460" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C460" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D460" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D460" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="461" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B461" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C461" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D461" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D461" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="462" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B462" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C462" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D462" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D462" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="463" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B463" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C463" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D463" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D463" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="464" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B464" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C464" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D464" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D464" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="465" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B465" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C465" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D465" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D465" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="466" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B466" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C466" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D466" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D466" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="467" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B467" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C467" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D467" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D467" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="468" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B468" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C468" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D468" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D468" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="469" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B469" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C469" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D469" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D469" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="470" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B470" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C470" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D470" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D470" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="471" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B471" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C471" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D471" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D471" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="472" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B472" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C472" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D472" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D472" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="473" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B473" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C473" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D473" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D473" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="474" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B474" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C474" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D474" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D474" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="475" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B475" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C475" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D475" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D475" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="476" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B476" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C476" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D476" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D476" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="477" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B477" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C477" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D477" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D477" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="478" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B478" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C478" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D478" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D478" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="479" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B479" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C479" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D479" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D479" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="480" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B480" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C480" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D480" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="B480" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C480" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="D480" s="2" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="481" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B481" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C481" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="482" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B482" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C482" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="483" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B483" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C483" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="484" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B484" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C484" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="485" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B485" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C485" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="486" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B486" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C486" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="487" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B487" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C487" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="488" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B488" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C488" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="489" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B489" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C489" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="490" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B490" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C490" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="491" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B491" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C491" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="492" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B492" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C492" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="493" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B493" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C493" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="494" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B494" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C494" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="495" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B495" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C495" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="496" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B496" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C496" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="497" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B497" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C497" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="498" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B498" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C498" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="499" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B499" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C499" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="500" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B500" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C500" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="501" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B501" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C501" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="502" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B502" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C502" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="503" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B503" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C503" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="504" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B504" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C504" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="505" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B505" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C505" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="506" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B506" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C506" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="507" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B507" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C507" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="508" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B508" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C508" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="509" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B509" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C509" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="510" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B510" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C510" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="511" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B511" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C511" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="512" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B512" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C512" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="513" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B513" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C513" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="514" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B514" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C514" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="515" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B515" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C515" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="516" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B516" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C516" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="517" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B517" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C517" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="518" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B518" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C518" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="519" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B519" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C519" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D519" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="B519" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C519" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="D519" s="2" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="520" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B520" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C520" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="521" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B521" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C521" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="522" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B522" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C522" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="523" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B523" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C523" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="524" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B524" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C524" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="525" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B525" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C525" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="526" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B526" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C526" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="527" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B527" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C527" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="528" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B528" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C528" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="529" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B529" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C529" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="530" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B530" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C530" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="531" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B531" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C531" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="532" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B532" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C532" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="533" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B533" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C533" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="534" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B534" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C534" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="535" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B535" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C535" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="536" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B536" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C536" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="537" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B537" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C537" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="538" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B538" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C538" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="539" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B539" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C539" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="540" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B540" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C540" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="541" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B541" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C541" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="542" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B542" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C542" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="543" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B543" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C543" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="544" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B544" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C544" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="545" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B545" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C545" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="546" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B546" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C546" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="547" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B547" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C547" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="548" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B548" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C548" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="549" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B549" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C549" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="550" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B550" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C550" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="551" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B551" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C551" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D551" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="B551" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C551" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="D551" s="2" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="552" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B552" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C552" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="553" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B553" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C553" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="554" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B554" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C554" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="555" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B555" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C555" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="556" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B556" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C556" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="557" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B557" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C557" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="558" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B558" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C558" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="559" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B559" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C559" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="560" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B560" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C560" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="561" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B561" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C561" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="562" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B562" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C562" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D562" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="563" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B563" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C563" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="564" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B564" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C564" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D564" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="565" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B565" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C565" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="566" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B566" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C566" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="567" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B567" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C567" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="568" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B568" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C568" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D568" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="569" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B569" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C569" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="570" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B570" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C570" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D570" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="571" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B571" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C571" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D571" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="572" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B572" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C572" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D572" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="573" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B573" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C573" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D573" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="574" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B574" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C574" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="575" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B575" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C575" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D575" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="576" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B576" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C576" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D576" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="577" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B577" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C577" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D577" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="578" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B578" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C578" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="579" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B579" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C579" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="580" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B580" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C580" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="581" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B581" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C581" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="B581" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C581" s="7" t="s">
+      <c r="D581" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D581" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="582" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B582" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C582" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D582" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D582" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="583" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B583" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C583" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D583" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D583" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="584" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B584" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C584" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D584" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D584" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="585" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B585" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C585" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D585" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D585" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="586" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B586" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C586" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D586" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D586" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="587" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B587" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C587" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D587" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D587" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="588" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B588" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C588" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D588" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D588" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="589" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B589" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C589" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D589" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D589" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="590" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B590" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C590" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D590" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D590" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="591" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B591" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C591" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D591" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D591" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="592" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B592" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C592" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D592" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D592" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="593" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B593" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C593" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D593" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D593" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="594" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B594" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C594" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D594" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D594" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="595" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B595" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C595" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D595" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D595" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="596" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B596" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C596" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D596" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D596" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="597" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A597" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B597" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C597" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D597" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D597" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="598" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B598" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C598" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D598" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D598" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="599" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A599" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B599" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C599" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D599" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D599" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="600" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B600" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C600" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D600" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D600" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="601" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A601" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B601" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C601" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D601" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D601" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="602" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B602" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C602" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D602" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D602" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="603" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A603" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B603" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C603" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D603" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D603" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="604" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B604" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C604" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D604" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D604" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="605" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B605" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C605" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D605" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D605" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="606" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B606" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C606" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D606" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D606" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="607" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B607" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C607" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D607" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D607" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="608" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B608" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C608" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D608" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="B608" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C608" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="D608" s="2" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="609" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A609" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B609" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C609" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D609" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="610" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B610" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C610" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D610" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="611" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A611" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B611" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C611" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D611" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="612" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B612" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C612" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="613" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A613" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B613" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C613" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D613" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="614" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B614" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C614" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D614" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="615" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A615" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B615" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C615" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D615" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="616" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B616" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C616" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D616" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="617" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A617" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B617" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C617" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="618" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B618" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C618" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D618" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="619" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A619" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B619" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C619" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D619" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="620" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B620" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C620" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D620" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="621" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A621" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B621" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C621" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="622" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B622" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C622" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="623" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A623" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B623" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C623" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D623" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="624" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B624" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C624" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D624" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="625" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A625" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B625" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C625" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D625" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="626" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B626" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C626" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="627" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A627" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B627" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C627" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D627" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="628" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B628" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C628" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D628" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="629" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A629" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B629" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C629" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D629" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="630" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B630" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C630" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D630" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="631" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A631" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B631" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C631" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D631" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="632" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B632" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C632" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D632" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="633" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A633" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B633" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C633" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D633" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="634" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B634" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C634" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D634" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="635" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A635" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B635" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C635" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D635" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="636" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A636" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B636" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C636" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D636" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="637" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A637" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B637" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C637" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D637" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="638" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A638" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B638" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C638" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D638" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="639" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A639" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B639" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C639" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D639" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="640" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A640" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B640" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C640" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D640" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="B640" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C640" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="D640" s="2" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="641" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A641" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B641" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C641" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D641" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="642" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A642" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B642" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C642" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D642" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="643" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A643" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B643" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C643" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D643" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="644" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A644" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B644" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C644" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D644" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="645" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A645" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B645" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C645" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D645" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="646" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A646" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B646" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C646" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D646" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="647" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A647" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B647" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C647" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="648" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A648" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B648" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C648" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D648" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="649" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A649" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B649" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C649" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D649" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="650" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A650" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B650" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C650" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D650" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="651" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A651" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B651" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C651" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D651" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="652" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A652" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B652" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C652" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D652" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="653" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A653" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B653" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C653" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D653" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="654" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A654" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B654" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C654" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D654" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="655" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A655" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B655" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C655" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D655" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="656" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A656" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B656" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C656" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D656" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="657" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A657" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B657" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C657" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D657" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="658" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A658" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B658" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C658" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="659" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A659" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B659" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C659" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D659" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="660" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A660" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B660" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C660" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="661" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A661" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B661" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C661" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D661" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="662" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A662" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B662" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C662" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D662" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="663" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A663" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B663" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C663" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D663" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="664" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A664" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B664" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C664" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D664" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="665" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A665" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B665" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C665" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D665" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="666" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A666" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B666" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C666" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="667" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A667" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B667" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C667" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="668" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A668" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B668" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C668" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D668" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="669" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A669" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B669" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C669" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D669" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="670" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A670" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B670" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C670" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D670" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="671" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A671" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B671" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C671" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D671" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="672" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A672" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B672" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C672" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D672" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="673" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A673" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B673" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C673" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D673" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="674" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A674" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B674" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C674" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D674" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="675" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A675" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B675" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C675" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D675" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="676" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A676" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B676" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C676" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D676" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="677" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A677" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B677" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C677" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D677" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="678" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A678" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B678" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C678" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D678" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="679" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A679" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B679" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C679" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D679" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="680" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A680" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B680" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C680" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D680" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="681" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A681" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B681" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C681" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D681" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="682" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A682" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B682" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C682" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D682" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="683" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A683" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B683" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C683" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D683" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="684" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A684" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B684" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C684" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D684" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="685" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A685" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B685" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C685" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D685" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="686" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A686" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B686" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C686" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D686" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="687" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A687" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B687" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C687" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D687" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.25">
@@ -12272,7 +12304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12284,7 +12316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
